--- a/data/pca/factorExposure/factorExposure_2009-09-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-09-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01779324229039726</v>
+        <v>0.01676360965928167</v>
       </c>
       <c r="C2">
-        <v>-0.001575894714952349</v>
+        <v>-0.0009661700729664366</v>
       </c>
       <c r="D2">
-        <v>0.003606217647396727</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009518658317227695</v>
+      </c>
+      <c r="E2">
+        <v>-0.002278486441951273</v>
+      </c>
+      <c r="F2">
+        <v>0.01306268957605939</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.09631705004087886</v>
+        <v>0.09402212803419477</v>
       </c>
       <c r="C4">
-        <v>-0.02111017673696432</v>
+        <v>-0.01484771376608545</v>
       </c>
       <c r="D4">
-        <v>0.06467847862057002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0834244316398958</v>
+      </c>
+      <c r="E4">
+        <v>-0.02917555146315269</v>
+      </c>
+      <c r="F4">
+        <v>-0.03237637168640509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1485030234156017</v>
+        <v>0.15931765792913</v>
       </c>
       <c r="C6">
-        <v>-0.02685283147247931</v>
+        <v>-0.02692849162426874</v>
       </c>
       <c r="D6">
-        <v>-0.02402577387981124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02575318816116315</v>
+      </c>
+      <c r="E6">
+        <v>-0.008360706243102221</v>
+      </c>
+      <c r="F6">
+        <v>-0.04165220339854726</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.06384778621885545</v>
+        <v>0.0635963996304475</v>
       </c>
       <c r="C7">
-        <v>-0.00333200873707454</v>
+        <v>0.001592866397579759</v>
       </c>
       <c r="D7">
-        <v>0.03878134558718108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05258445123427231</v>
+      </c>
+      <c r="E7">
+        <v>-0.01238432391623335</v>
+      </c>
+      <c r="F7">
+        <v>-0.04677891654655886</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06336770873574211</v>
+        <v>0.05776443224544048</v>
       </c>
       <c r="C8">
-        <v>0.009468005865612637</v>
+        <v>0.01307851724813753</v>
       </c>
       <c r="D8">
-        <v>0.0171536255101905</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03247193022487452</v>
+      </c>
+      <c r="E8">
+        <v>-0.01831367167641029</v>
+      </c>
+      <c r="F8">
+        <v>0.02669447204094936</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.07441259243516966</v>
+        <v>0.07090953725820522</v>
       </c>
       <c r="C9">
-        <v>-0.01745475832932861</v>
+        <v>-0.01041628221318019</v>
       </c>
       <c r="D9">
-        <v>0.06688831901097621</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08732243176718503</v>
+      </c>
+      <c r="E9">
+        <v>-0.02425467054875086</v>
+      </c>
+      <c r="F9">
+        <v>-0.04644876319777567</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08156284603298219</v>
+        <v>0.09049158488681515</v>
       </c>
       <c r="C10">
-        <v>-0.01190851192846155</v>
+        <v>-0.02061800009456374</v>
       </c>
       <c r="D10">
-        <v>-0.1665328078486376</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1639369079995402</v>
+      </c>
+      <c r="E10">
+        <v>0.03272982136999036</v>
+      </c>
+      <c r="F10">
+        <v>0.05707697979023964</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09402080090736811</v>
+        <v>0.08850051949841774</v>
       </c>
       <c r="C11">
-        <v>-0.01847868406292815</v>
+        <v>-0.01063794270946607</v>
       </c>
       <c r="D11">
-        <v>0.09341600701608842</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1168865742219981</v>
+      </c>
+      <c r="E11">
+        <v>-0.0464620074111935</v>
+      </c>
+      <c r="F11">
+        <v>-0.02249662768680132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.1008262204361101</v>
+        <v>0.09225725910872198</v>
       </c>
       <c r="C12">
-        <v>-0.01649869016341806</v>
+        <v>-0.008004655456263606</v>
       </c>
       <c r="D12">
-        <v>0.09597798231316977</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1316755573192689</v>
+      </c>
+      <c r="E12">
+        <v>-0.04629864136257867</v>
+      </c>
+      <c r="F12">
+        <v>-0.03088460449639311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04278226379618705</v>
+        <v>0.04144160821954831</v>
       </c>
       <c r="C13">
-        <v>-0.006255190583748851</v>
+        <v>-0.00247738213960958</v>
       </c>
       <c r="D13">
-        <v>0.03077336680407104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05273736676645024</v>
+      </c>
+      <c r="E13">
+        <v>0.004469632500522122</v>
+      </c>
+      <c r="F13">
+        <v>-0.001025735613093299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02029274548839279</v>
+        <v>0.02410072857108281</v>
       </c>
       <c r="C14">
-        <v>-0.01541689854876629</v>
+        <v>-0.0138821538323623</v>
       </c>
       <c r="D14">
-        <v>0.02299403916189682</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03348873521865931</v>
+      </c>
+      <c r="E14">
+        <v>-0.01895016595848285</v>
+      </c>
+      <c r="F14">
+        <v>-0.01398994553167045</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03522204981112352</v>
+        <v>0.03315120207908911</v>
       </c>
       <c r="C15">
-        <v>-0.008011970125697281</v>
+        <v>-0.004765332807815255</v>
       </c>
       <c r="D15">
-        <v>0.02893456005075693</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04508333097894433</v>
+      </c>
+      <c r="E15">
+        <v>-0.006033939679585419</v>
+      </c>
+      <c r="F15">
+        <v>-0.02547424380056853</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08042421730552443</v>
+        <v>0.07457154129432099</v>
       </c>
       <c r="C16">
-        <v>-0.009162344448352429</v>
+        <v>-0.001208027694242296</v>
       </c>
       <c r="D16">
-        <v>0.0963399325864201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1278655843184083</v>
+      </c>
+      <c r="E16">
+        <v>-0.06116204485201036</v>
+      </c>
+      <c r="F16">
+        <v>-0.02772019220550272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0007529751770348165</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0001841449515634054</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001528856731199475</v>
+      </c>
+      <c r="E17">
+        <v>-0.0009947663251658743</v>
+      </c>
+      <c r="F17">
+        <v>0.002303802600881075</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.01713947622549706</v>
+        <v>0.03650875447010375</v>
       </c>
       <c r="C18">
-        <v>0.00312388783830098</v>
+        <v>0.002849734057717156</v>
       </c>
       <c r="D18">
-        <v>0.03086537037424811</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01545525397721634</v>
+      </c>
+      <c r="E18">
+        <v>0.008946133268935275</v>
+      </c>
+      <c r="F18">
+        <v>0.008426505278275072</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.0665799159388419</v>
+        <v>0.0623520980310802</v>
       </c>
       <c r="C20">
-        <v>-0.006937136087449823</v>
+        <v>-0.0003227638618068394</v>
       </c>
       <c r="D20">
-        <v>0.0482587655553214</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07700245046908102</v>
+      </c>
+      <c r="E20">
+        <v>-0.05563342612765547</v>
+      </c>
+      <c r="F20">
+        <v>-0.02969443408515005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.042387744213019</v>
+        <v>0.04065408768806322</v>
       </c>
       <c r="C21">
-        <v>-0.01037583525159759</v>
+        <v>-0.006474197131239113</v>
       </c>
       <c r="D21">
-        <v>0.0250163079230377</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03867935948326687</v>
+      </c>
+      <c r="E21">
+        <v>0.0007845527935955403</v>
+      </c>
+      <c r="F21">
+        <v>0.02427207506542344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04092299740487317</v>
+        <v>0.04349790417519169</v>
       </c>
       <c r="C22">
-        <v>-0.000845092928405295</v>
+        <v>-0.0006108923318319483</v>
       </c>
       <c r="D22">
-        <v>-0.01190530410837193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.003187001243199459</v>
+      </c>
+      <c r="E22">
+        <v>-0.03617123232164513</v>
+      </c>
+      <c r="F22">
+        <v>0.03825481002321123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.0408860690989868</v>
+        <v>0.04347368362300014</v>
       </c>
       <c r="C23">
-        <v>-0.0008356329193556793</v>
+        <v>-0.0006024107849009455</v>
       </c>
       <c r="D23">
-        <v>-0.0118861980527598</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.003202464231226165</v>
+      </c>
+      <c r="E23">
+        <v>-0.03635430763869016</v>
+      </c>
+      <c r="F23">
+        <v>0.03821506848814468</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08562904900559185</v>
+        <v>0.08034142569647365</v>
       </c>
       <c r="C24">
-        <v>-0.009603546338179145</v>
+        <v>-0.001929839627801697</v>
       </c>
       <c r="D24">
-        <v>0.100998992390651</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1201205240399079</v>
+      </c>
+      <c r="E24">
+        <v>-0.04888209846609291</v>
+      </c>
+      <c r="F24">
+        <v>-0.02938712854603885</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09037100912518781</v>
+        <v>0.08515179916503188</v>
       </c>
       <c r="C25">
-        <v>-0.01193813967619808</v>
+        <v>-0.004468919282131486</v>
       </c>
       <c r="D25">
-        <v>0.08799736349808267</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1096724130369624</v>
+      </c>
+      <c r="E25">
+        <v>-0.03262152592458286</v>
+      </c>
+      <c r="F25">
+        <v>-0.02651705172925202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05874565381624427</v>
+        <v>0.0591642165510676</v>
       </c>
       <c r="C26">
-        <v>-0.01843599647381135</v>
+        <v>-0.01461614092711284</v>
       </c>
       <c r="D26">
-        <v>0.01663892720563767</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04173099431351423</v>
+      </c>
+      <c r="E26">
+        <v>-0.02962658855994575</v>
+      </c>
+      <c r="F26">
+        <v>0.005860925561308715</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1288854552236267</v>
+        <v>0.1408840087890098</v>
       </c>
       <c r="C28">
-        <v>-0.009993823515451026</v>
+        <v>-0.02186634494987417</v>
       </c>
       <c r="D28">
-        <v>-0.2731762559640399</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2604791765700161</v>
+      </c>
+      <c r="E28">
+        <v>0.06727935192861065</v>
+      </c>
+      <c r="F28">
+        <v>-0.0037733208036911</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02627515843472584</v>
+        <v>0.02886163273587223</v>
       </c>
       <c r="C29">
-        <v>-0.01007290578320712</v>
+        <v>-0.008815778185431141</v>
       </c>
       <c r="D29">
-        <v>0.02069914887426431</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.031349423306603</v>
+      </c>
+      <c r="E29">
+        <v>-0.01420260149309738</v>
+      </c>
+      <c r="F29">
+        <v>0.01252274287089953</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.06856084824585681</v>
+        <v>0.05957636654051408</v>
       </c>
       <c r="C30">
-        <v>-0.01073132845374362</v>
+        <v>-0.002899106152176591</v>
       </c>
       <c r="D30">
-        <v>0.05870532488779296</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08817422839405956</v>
+      </c>
+      <c r="E30">
+        <v>-0.0147102606603106</v>
+      </c>
+      <c r="F30">
+        <v>-0.0789603081460221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05116398752682402</v>
+        <v>0.05136470913463761</v>
       </c>
       <c r="C31">
-        <v>-0.01700213707269968</v>
+        <v>-0.0157127060058475</v>
       </c>
       <c r="D31">
-        <v>0.02016820946965369</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02419754863179419</v>
+      </c>
+      <c r="E31">
+        <v>-0.02879301232695959</v>
+      </c>
+      <c r="F31">
+        <v>0.0009561572353476127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.0477770912449173</v>
+        <v>0.05151138665412262</v>
       </c>
       <c r="C32">
-        <v>-0.002052591092714576</v>
+        <v>0.001760171849436661</v>
       </c>
       <c r="D32">
-        <v>0.02004899925741974</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03616460908145261</v>
+      </c>
+      <c r="E32">
+        <v>-0.03442099234835904</v>
+      </c>
+      <c r="F32">
+        <v>-0.004267950767096996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09472126740881107</v>
+        <v>0.08873581493892421</v>
       </c>
       <c r="C33">
-        <v>-0.01428339230784676</v>
+        <v>-0.006699063776612766</v>
       </c>
       <c r="D33">
-        <v>0.07442630544867448</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.102713826753973</v>
+      </c>
+      <c r="E33">
+        <v>-0.04468846517160153</v>
+      </c>
+      <c r="F33">
+        <v>-0.03937417265856805</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.07289550918767373</v>
+        <v>0.06829736933557623</v>
       </c>
       <c r="C34">
-        <v>-0.01665290269015345</v>
+        <v>-0.01025754973535411</v>
       </c>
       <c r="D34">
-        <v>0.08081071003281681</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.109878637272199</v>
+      </c>
+      <c r="E34">
+        <v>-0.0351218603768854</v>
+      </c>
+      <c r="F34">
+        <v>-0.0334179666687205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02384115295576631</v>
+        <v>0.02538225987000586</v>
       </c>
       <c r="C35">
-        <v>-0.00288862318282161</v>
+        <v>-0.002576247717856898</v>
       </c>
       <c r="D35">
-        <v>0.00610614568452249</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.0121386573765393</v>
+      </c>
+      <c r="E35">
+        <v>-0.01272970875684594</v>
+      </c>
+      <c r="F35">
+        <v>-0.001493812500170342</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02752171633552812</v>
+        <v>0.02770059038290403</v>
       </c>
       <c r="C36">
-        <v>-0.008141825706117736</v>
+        <v>-0.006905390086221309</v>
       </c>
       <c r="D36">
-        <v>0.03810751723210081</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03987964685272789</v>
+      </c>
+      <c r="E36">
+        <v>-0.01690488917936071</v>
+      </c>
+      <c r="F36">
+        <v>-0.01476537217368925</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0004284100396595967</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0006078515246465695</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002344667724526944</v>
+      </c>
+      <c r="E37">
+        <v>0.0007734073682051736</v>
+      </c>
+      <c r="F37">
+        <v>0.001703151917107959</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1189055324613173</v>
+        <v>0.1046668724401418</v>
       </c>
       <c r="C39">
-        <v>-0.02522715901230719</v>
+        <v>-0.01592227255810375</v>
       </c>
       <c r="D39">
-        <v>0.1366797842451504</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1544089245117705</v>
+      </c>
+      <c r="E39">
+        <v>-0.0600524793630837</v>
+      </c>
+      <c r="F39">
+        <v>-0.0301477389299958</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.03967186165586255</v>
+        <v>0.04149735574960625</v>
       </c>
       <c r="C40">
-        <v>-0.009946794991301926</v>
+        <v>-0.00721286867421385</v>
       </c>
       <c r="D40">
-        <v>0.007305091893847587</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.02990459197813926</v>
+      </c>
+      <c r="E40">
+        <v>-0.001016566498271881</v>
+      </c>
+      <c r="F40">
+        <v>0.01890634867569415</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02503379655662453</v>
+        <v>0.02775392315438925</v>
       </c>
       <c r="C41">
-        <v>-0.007186249514418157</v>
+        <v>-0.0068724731251487</v>
       </c>
       <c r="D41">
-        <v>0.00931386077276777</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01041467445501798</v>
+      </c>
+      <c r="E41">
+        <v>-0.01204293514439429</v>
+      </c>
+      <c r="F41">
+        <v>0.005526624208040439</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04189742071841004</v>
+        <v>0.04089129504980187</v>
       </c>
       <c r="C43">
-        <v>-0.008452646677186443</v>
+        <v>-0.007118103237326909</v>
       </c>
       <c r="D43">
-        <v>0.01203424053281551</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01850021244944456</v>
+      </c>
+      <c r="E43">
+        <v>-0.02549050918748298</v>
+      </c>
+      <c r="F43">
+        <v>0.0124809791959927</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.07808085628539957</v>
+        <v>0.08059289510673188</v>
       </c>
       <c r="C44">
-        <v>-0.02766594449250086</v>
+        <v>-0.01957787051832597</v>
       </c>
       <c r="D44">
-        <v>0.07450580923942771</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09750768755568177</v>
+      </c>
+      <c r="E44">
+        <v>-0.0624666597631741</v>
+      </c>
+      <c r="F44">
+        <v>-0.1596609153512686</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.01968439603184981</v>
+        <v>0.02330787738618333</v>
       </c>
       <c r="C46">
-        <v>-0.003735001289001728</v>
+        <v>-0.003324275862708742</v>
       </c>
       <c r="D46">
-        <v>0.007248942840864418</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01283125516412535</v>
+      </c>
+      <c r="E46">
+        <v>-0.02598999123959089</v>
+      </c>
+      <c r="F46">
+        <v>0.007000981601008733</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05371248074028172</v>
+        <v>0.05277320325422882</v>
       </c>
       <c r="C47">
-        <v>-0.004746847447173882</v>
+        <v>-0.003820493390755584</v>
       </c>
       <c r="D47">
-        <v>0.005548842600953318</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01137672025912437</v>
+      </c>
+      <c r="E47">
+        <v>-0.02349468570772875</v>
+      </c>
+      <c r="F47">
+        <v>0.03277669660829376</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04939551784925697</v>
+        <v>0.05007442991405799</v>
       </c>
       <c r="C48">
-        <v>-0.005279425233403599</v>
+        <v>-0.002196948467154406</v>
       </c>
       <c r="D48">
-        <v>0.04167628874783758</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05112884970269547</v>
+      </c>
+      <c r="E48">
+        <v>0.004381289684042849</v>
+      </c>
+      <c r="F48">
+        <v>-0.009479135168486265</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2010844287786339</v>
+        <v>0.1993544924910853</v>
       </c>
       <c r="C49">
-        <v>-0.02043949876349587</v>
+        <v>-0.01894785964289974</v>
       </c>
       <c r="D49">
-        <v>-0.01883808457663524</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.00700506812275636</v>
+      </c>
+      <c r="E49">
+        <v>-0.02985280182483204</v>
+      </c>
+      <c r="F49">
+        <v>-0.04106056073103784</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.05022791075392646</v>
+        <v>0.05175870299421066</v>
       </c>
       <c r="C50">
-        <v>-0.01310277724992976</v>
+        <v>-0.01140895277479435</v>
       </c>
       <c r="D50">
-        <v>0.01880645693403234</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02342024255720982</v>
+      </c>
+      <c r="E50">
+        <v>-0.02980952009004014</v>
+      </c>
+      <c r="F50">
+        <v>-0.009947082236862914</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1551212144056973</v>
+        <v>0.149548109214366</v>
       </c>
       <c r="C52">
-        <v>-0.01925696838467744</v>
+        <v>-0.01784020630124241</v>
       </c>
       <c r="D52">
-        <v>0.04987393139395856</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04054636795816004</v>
+      </c>
+      <c r="E52">
+        <v>-0.01997617990274421</v>
+      </c>
+      <c r="F52">
+        <v>-0.04390571045203323</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1718617284020187</v>
+        <v>0.1716681142991706</v>
       </c>
       <c r="C53">
-        <v>-0.01880464480073594</v>
+        <v>-0.02026783966323223</v>
       </c>
       <c r="D53">
-        <v>0.01574896683663103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.00248115615529727</v>
+      </c>
+      <c r="E53">
+        <v>-0.02726411015149079</v>
+      </c>
+      <c r="F53">
+        <v>-0.07338046204133865</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01783947407765865</v>
+        <v>0.02100121785906759</v>
       </c>
       <c r="C54">
-        <v>-0.01279517571783367</v>
+        <v>-0.01133090160634083</v>
       </c>
       <c r="D54">
-        <v>0.02725517830920013</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03444904267264091</v>
+      </c>
+      <c r="E54">
+        <v>-0.02264212020966851</v>
+      </c>
+      <c r="F54">
+        <v>0.003266669657246974</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1140366797295683</v>
+        <v>0.1149809202387774</v>
       </c>
       <c r="C55">
-        <v>-0.01734376612331484</v>
+        <v>-0.01773877893906683</v>
       </c>
       <c r="D55">
-        <v>0.01262281826341871</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.006110306976070065</v>
+      </c>
+      <c r="E55">
+        <v>-0.02285683355212771</v>
+      </c>
+      <c r="F55">
+        <v>-0.04707428971257337</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1785888935971749</v>
+        <v>0.1772365731390782</v>
       </c>
       <c r="C56">
-        <v>-0.01641007973950247</v>
+        <v>-0.01809919551974013</v>
       </c>
       <c r="D56">
-        <v>0.01046690782761428</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.005228563667896413</v>
+      </c>
+      <c r="E56">
+        <v>-0.03073132911227845</v>
+      </c>
+      <c r="F56">
+        <v>-0.05380783123627533</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04969145735169447</v>
+        <v>0.0449113087974914</v>
       </c>
       <c r="C58">
-        <v>-0.005920628939927179</v>
+        <v>0.0002686134839187798</v>
       </c>
       <c r="D58">
-        <v>0.05378285056882554</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07145649210695029</v>
+      </c>
+      <c r="E58">
+        <v>-0.03295245632542763</v>
+      </c>
+      <c r="F58">
+        <v>0.03600255846417269</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1590930150801479</v>
+        <v>0.1664222769394668</v>
       </c>
       <c r="C59">
-        <v>-0.01195208928443918</v>
+        <v>-0.02219957696025938</v>
       </c>
       <c r="D59">
-        <v>-0.2248143372636718</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2174729366816742</v>
+      </c>
+      <c r="E59">
+        <v>0.04659707429376418</v>
+      </c>
+      <c r="F59">
+        <v>0.03485274886194546</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2379192245872767</v>
+        <v>0.2322131768758443</v>
       </c>
       <c r="C60">
-        <v>-0.00060111333419664</v>
+        <v>0.001723311393479805</v>
       </c>
       <c r="D60">
-        <v>0.0445094765105608</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03725829595253376</v>
+      </c>
+      <c r="E60">
+        <v>-0.005784699583440205</v>
+      </c>
+      <c r="F60">
+        <v>1.905624026271912e-06</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.08940552965916876</v>
+        <v>0.0802563113210554</v>
       </c>
       <c r="C61">
-        <v>-0.01880645333403101</v>
+        <v>-0.01138555872740608</v>
       </c>
       <c r="D61">
-        <v>0.09493755212895323</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1177807236491713</v>
+      </c>
+      <c r="E61">
+        <v>-0.03953595220198477</v>
+      </c>
+      <c r="F61">
+        <v>-0.01299451906751332</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1704595334594727</v>
+        <v>0.1694768088833007</v>
       </c>
       <c r="C62">
-        <v>-0.02068292833796495</v>
+        <v>-0.02100732566049912</v>
       </c>
       <c r="D62">
-        <v>0.006299357200125227</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.003416004726893522</v>
+      </c>
+      <c r="E62">
+        <v>-0.03184499409386238</v>
+      </c>
+      <c r="F62">
+        <v>-0.0366376525906917</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.044749083975879</v>
+        <v>0.0457630408181378</v>
       </c>
       <c r="C63">
-        <v>-0.00628541027796979</v>
+        <v>-0.001748344940121892</v>
       </c>
       <c r="D63">
-        <v>0.0412793051188815</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05934387896713652</v>
+      </c>
+      <c r="E63">
+        <v>-0.02383209248182258</v>
+      </c>
+      <c r="F63">
+        <v>-0.004157555021598452</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1116117907914335</v>
+        <v>0.1110478033884861</v>
       </c>
       <c r="C64">
-        <v>-0.01487302898127647</v>
+        <v>-0.01161489525134029</v>
       </c>
       <c r="D64">
-        <v>0.03171439012535314</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04214706445444297</v>
+      </c>
+      <c r="E64">
+        <v>-0.02201589488113375</v>
+      </c>
+      <c r="F64">
+        <v>-0.02611074090414889</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1387318389751546</v>
+        <v>0.1509278485088351</v>
       </c>
       <c r="C65">
-        <v>-0.03231666664505761</v>
+        <v>-0.03434710245332624</v>
       </c>
       <c r="D65">
-        <v>-0.04743231566318499</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04663690283233624</v>
+      </c>
+      <c r="E65">
+        <v>-0.003592104255039416</v>
+      </c>
+      <c r="F65">
+        <v>-0.03680081872984252</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1419902741572066</v>
+        <v>0.1243865181607271</v>
       </c>
       <c r="C66">
-        <v>-0.02324565829567346</v>
+        <v>-0.01391621929648647</v>
       </c>
       <c r="D66">
-        <v>0.1138577699205745</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1413415542351226</v>
+      </c>
+      <c r="E66">
+        <v>-0.06471930444991408</v>
+      </c>
+      <c r="F66">
+        <v>-0.03403467014401303</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06475151912204061</v>
+        <v>0.05736098776515348</v>
       </c>
       <c r="C67">
-        <v>-0.005646492984065579</v>
+        <v>-0.00292867057243121</v>
       </c>
       <c r="D67">
-        <v>0.05171958836732948</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05561442079513971</v>
+      </c>
+      <c r="E67">
+        <v>-0.01672985082894538</v>
+      </c>
+      <c r="F67">
+        <v>0.02933986741885711</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1024271901609684</v>
+        <v>0.1153672436466285</v>
       </c>
       <c r="C68">
-        <v>-0.0203614461993241</v>
+        <v>-0.0326220162772253</v>
       </c>
       <c r="D68">
-        <v>-0.2733180299988749</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2611294466587057</v>
+      </c>
+      <c r="E68">
+        <v>0.08785418068701349</v>
+      </c>
+      <c r="F68">
+        <v>0.002117662226990922</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.04075468881331058</v>
+        <v>0.03913142612927027</v>
       </c>
       <c r="C69">
-        <v>-0.001691067097722747</v>
+        <v>-0.00129508969107624</v>
       </c>
       <c r="D69">
-        <v>0.006953116839255881</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007602550412125999</v>
+      </c>
+      <c r="E69">
+        <v>-0.02344985391577074</v>
+      </c>
+      <c r="F69">
+        <v>-0.0008622693225689733</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.0672505579762137</v>
+        <v>0.06671823391321681</v>
       </c>
       <c r="C70">
-        <v>0.02392378249060945</v>
+        <v>0.0273054832363514</v>
       </c>
       <c r="D70">
-        <v>-0.01549886412407738</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02388686852261208</v>
+      </c>
+      <c r="E70">
+        <v>0.03149374899775382</v>
+      </c>
+      <c r="F70">
+        <v>0.1781164475558287</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1200969233707798</v>
+        <v>0.1351622749866561</v>
       </c>
       <c r="C71">
-        <v>-0.02381770394418507</v>
+        <v>-0.03694433546442284</v>
       </c>
       <c r="D71">
-        <v>-0.2870326857507471</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2721097356664315</v>
+      </c>
+      <c r="E71">
+        <v>0.09791458833848669</v>
+      </c>
+      <c r="F71">
+        <v>-0.004028249170230973</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1382342106821827</v>
+        <v>0.1426791570500637</v>
       </c>
       <c r="C72">
-        <v>-0.02707266686349824</v>
+        <v>-0.02741952186901448</v>
       </c>
       <c r="D72">
-        <v>0.0005205757323978711</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.005121234752838006</v>
+      </c>
+      <c r="E72">
+        <v>-0.0356361385946404</v>
+      </c>
+      <c r="F72">
+        <v>-0.03084595940735948</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2053765939363172</v>
+        <v>0.2043661596232602</v>
       </c>
       <c r="C73">
-        <v>-0.01632202690977502</v>
+        <v>-0.0132636863654931</v>
       </c>
       <c r="D73">
-        <v>0.01619127916008003</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01623277654253922</v>
+      </c>
+      <c r="E73">
+        <v>-0.06278623638225594</v>
+      </c>
+      <c r="F73">
+        <v>-0.04266749201900492</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.09299791814722409</v>
+        <v>0.09537981145446302</v>
       </c>
       <c r="C74">
-        <v>-0.01330958962208205</v>
+        <v>-0.01360522723976038</v>
       </c>
       <c r="D74">
-        <v>0.02085657207030213</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0153128860057738</v>
+      </c>
+      <c r="E74">
+        <v>-0.04307867143300137</v>
+      </c>
+      <c r="F74">
+        <v>-0.05679906203659461</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1345159273132414</v>
+        <v>0.1277347577787985</v>
       </c>
       <c r="C75">
-        <v>-0.02980835953955484</v>
+        <v>-0.02866496139069012</v>
       </c>
       <c r="D75">
-        <v>0.02848283397106159</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02798595302034659</v>
+      </c>
+      <c r="E75">
+        <v>-0.05613743909462404</v>
+      </c>
+      <c r="F75">
+        <v>-0.02203193694482204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08381739820215116</v>
+        <v>0.08925124746651072</v>
       </c>
       <c r="C77">
-        <v>-0.01531568599293603</v>
+        <v>-0.008198665672791183</v>
       </c>
       <c r="D77">
-        <v>0.09609190582644482</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1136832345809916</v>
+      </c>
+      <c r="E77">
+        <v>-0.04299509161786749</v>
+      </c>
+      <c r="F77">
+        <v>-0.03481975058043683</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1053141071182192</v>
+        <v>0.1006049895768612</v>
       </c>
       <c r="C78">
-        <v>-0.0472395168832634</v>
+        <v>-0.03958152967372392</v>
       </c>
       <c r="D78">
-        <v>0.09723694883067083</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1154775304067998</v>
+      </c>
+      <c r="E78">
+        <v>-0.07691406476784025</v>
+      </c>
+      <c r="F78">
+        <v>-0.05062553608438046</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1641590755738439</v>
+        <v>0.1640662726245835</v>
       </c>
       <c r="C79">
-        <v>-0.02374368921000487</v>
+        <v>-0.02345140564076145</v>
       </c>
       <c r="D79">
-        <v>0.01349178263636346</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01135143612855802</v>
+      </c>
+      <c r="E79">
+        <v>-0.04398749139554013</v>
+      </c>
+      <c r="F79">
+        <v>-0.01159882418943955</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08687149323598481</v>
+        <v>0.08199216204495234</v>
       </c>
       <c r="C80">
-        <v>-0.00196062335328774</v>
+        <v>0.0007143302880348673</v>
       </c>
       <c r="D80">
-        <v>0.04152822016745093</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05559191078212056</v>
+      </c>
+      <c r="E80">
+        <v>-0.0352989211261104</v>
+      </c>
+      <c r="F80">
+        <v>0.01926154865326173</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1195344862256327</v>
+        <v>0.1184553370535656</v>
       </c>
       <c r="C81">
-        <v>-0.03200693801615018</v>
+        <v>-0.03213400659456073</v>
       </c>
       <c r="D81">
-        <v>0.02483351920032955</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01299163553066737</v>
+      </c>
+      <c r="E81">
+        <v>-0.0547833026477504</v>
+      </c>
+      <c r="F81">
+        <v>-0.01959785091916993</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.16596689884611</v>
+        <v>0.1661625861265082</v>
       </c>
       <c r="C82">
-        <v>-0.02418592171884006</v>
+        <v>-0.02552262446523558</v>
       </c>
       <c r="D82">
-        <v>0.01427084298170103</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.00148897519718817</v>
+      </c>
+      <c r="E82">
+        <v>-0.02424678009231675</v>
+      </c>
+      <c r="F82">
+        <v>-0.08087471843527338</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06826211684742604</v>
+        <v>0.05877232477038741</v>
       </c>
       <c r="C83">
-        <v>-0.006552863981204521</v>
+        <v>-0.002988365311389977</v>
       </c>
       <c r="D83">
-        <v>0.03285084391797942</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05008683738957218</v>
+      </c>
+      <c r="E83">
+        <v>-0.003502687256548691</v>
+      </c>
+      <c r="F83">
+        <v>0.02931951467648637</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06397319424154534</v>
+        <v>0.0580793928511868</v>
       </c>
       <c r="C84">
-        <v>-0.01466143131436086</v>
+        <v>-0.01080432248910967</v>
       </c>
       <c r="D84">
-        <v>0.06667207946778624</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07354519054514494</v>
+      </c>
+      <c r="E84">
+        <v>-0.01505855593989327</v>
+      </c>
+      <c r="F84">
+        <v>-0.01335353937842516</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1371147180101872</v>
+        <v>0.1357684397597556</v>
       </c>
       <c r="C85">
-        <v>-0.02825557588352756</v>
+        <v>-0.0286154050490152</v>
       </c>
       <c r="D85">
-        <v>0.01735569502329451</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.007270993175832661</v>
+      </c>
+      <c r="E85">
+        <v>-0.03484412628104456</v>
+      </c>
+      <c r="F85">
+        <v>-0.04626390560685592</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1044848715294837</v>
+        <v>0.0939704310722502</v>
       </c>
       <c r="C86">
-        <v>0.00164661744002695</v>
+        <v>0.006118169090277795</v>
       </c>
       <c r="D86">
-        <v>-0.01148433751540535</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04913210581119267</v>
+      </c>
+      <c r="E86">
+        <v>-0.244137687634849</v>
+      </c>
+      <c r="F86">
+        <v>0.9028449714217579</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1007651626655131</v>
+        <v>0.09436752050090691</v>
       </c>
       <c r="C87">
-        <v>-0.02933678834664219</v>
+        <v>-0.01947119855826399</v>
       </c>
       <c r="D87">
-        <v>0.06354457152062511</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09515444451878663</v>
+      </c>
+      <c r="E87">
+        <v>0.05222774840124243</v>
+      </c>
+      <c r="F87">
+        <v>-0.04682101775453685</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06103535506229787</v>
+        <v>0.06059669664650122</v>
       </c>
       <c r="C88">
-        <v>-0.00546866647599025</v>
+        <v>-0.002360073392613927</v>
       </c>
       <c r="D88">
-        <v>0.05384800332075793</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04929733006295884</v>
+      </c>
+      <c r="E88">
+        <v>-0.02406249749174855</v>
+      </c>
+      <c r="F88">
+        <v>-0.01560322128901907</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1151389380957799</v>
+        <v>0.1264448151797561</v>
       </c>
       <c r="C89">
-        <v>-0.001631945710493597</v>
+        <v>-0.01241192557148823</v>
       </c>
       <c r="D89">
-        <v>-0.2630283625107293</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2422108475699826</v>
+      </c>
+      <c r="E89">
+        <v>0.08848689918403894</v>
+      </c>
+      <c r="F89">
+        <v>0.01226484748733109</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1309218708938971</v>
+        <v>0.1498695285161132</v>
       </c>
       <c r="C90">
-        <v>-0.02055778744030626</v>
+        <v>-0.03372568266710579</v>
       </c>
       <c r="D90">
-        <v>-0.275228811504277</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2702206780584075</v>
+      </c>
+      <c r="E90">
+        <v>0.1141504822718394</v>
+      </c>
+      <c r="F90">
+        <v>0.01283707067026999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1191398813153816</v>
+        <v>0.1218078837257462</v>
       </c>
       <c r="C91">
-        <v>-0.01897896030217356</v>
+        <v>-0.02033850267924611</v>
       </c>
       <c r="D91">
-        <v>-0.007133487990761672</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01814585756044775</v>
+      </c>
+      <c r="E91">
+        <v>-0.05362793928906504</v>
+      </c>
+      <c r="F91">
+        <v>0.0006044458009551494</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1352751568331259</v>
+        <v>0.1464682440396255</v>
       </c>
       <c r="C92">
-        <v>-0.01019723587329167</v>
+        <v>-0.0241710242468774</v>
       </c>
       <c r="D92">
-        <v>-0.3089985586941178</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2910278976251675</v>
+      </c>
+      <c r="E92">
+        <v>0.1021424104279037</v>
+      </c>
+      <c r="F92">
+        <v>0.02024422217024127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1346061581635615</v>
+        <v>0.1498853790874067</v>
       </c>
       <c r="C93">
-        <v>-0.01607834152611902</v>
+        <v>-0.02862644391197034</v>
       </c>
       <c r="D93">
-        <v>-0.2701382626248437</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2654953673888382</v>
+      </c>
+      <c r="E93">
+        <v>0.07685256181541276</v>
+      </c>
+      <c r="F93">
+        <v>0.002784725206906476</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1354493277471899</v>
+        <v>0.1287035468505893</v>
       </c>
       <c r="C94">
-        <v>-0.0269308186824024</v>
+        <v>-0.0251255525166604</v>
       </c>
       <c r="D94">
-        <v>0.04264976398593395</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.03945930237613377</v>
+      </c>
+      <c r="E94">
+        <v>-0.05605928086161444</v>
+      </c>
+      <c r="F94">
+        <v>-0.03540247456291433</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.127060709665934</v>
+        <v>0.1261522392387984</v>
       </c>
       <c r="C95">
-        <v>-0.01087783872188173</v>
+        <v>-0.00339542953973971</v>
       </c>
       <c r="D95">
-        <v>0.07279645652243895</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09739372310122149</v>
+      </c>
+      <c r="E95">
+        <v>-0.05305259287300393</v>
+      </c>
+      <c r="F95">
+        <v>0.005879712345714238</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.116570618620409</v>
+        <v>0.1105629195889491</v>
       </c>
       <c r="C96">
-        <v>0.987374408864685</v>
+        <v>0.9870007660531931</v>
       </c>
       <c r="D96">
-        <v>-0.008265216559062471</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05015602862562696</v>
+      </c>
+      <c r="E96">
+        <v>-0.05247349655686704</v>
+      </c>
+      <c r="F96">
+        <v>-0.04298275455852739</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1930327357098939</v>
+        <v>0.1916572615002262</v>
       </c>
       <c r="C97">
-        <v>0.006191965709080292</v>
+        <v>0.006612735526130596</v>
       </c>
       <c r="D97">
-        <v>-0.01684992127853875</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02042781565169752</v>
+      </c>
+      <c r="E97">
+        <v>-0.02110426802777237</v>
+      </c>
+      <c r="F97">
+        <v>0.09082639209840414</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2001560703717848</v>
+        <v>0.2061892972589527</v>
       </c>
       <c r="C98">
-        <v>-0.01041660520545727</v>
+        <v>-0.007338271300019189</v>
       </c>
       <c r="D98">
-        <v>0.01267414171778622</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.0128067877488264</v>
+      </c>
+      <c r="E98">
+        <v>0.07539199880217044</v>
+      </c>
+      <c r="F98">
+        <v>0.09192932240104708</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05685806702128267</v>
+        <v>0.05500966279766231</v>
       </c>
       <c r="C99">
-        <v>0.001877530288813844</v>
+        <v>0.004314448457410218</v>
       </c>
       <c r="D99">
-        <v>0.02280048607651129</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03854573306815794</v>
+      </c>
+      <c r="E99">
+        <v>-0.02178770547399595</v>
+      </c>
+      <c r="F99">
+        <v>-0.003300006788089187</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1426754197626105</v>
+        <v>0.1287196152092848</v>
       </c>
       <c r="C100">
-        <v>0.03741941205616587</v>
+        <v>0.05276067259480136</v>
       </c>
       <c r="D100">
-        <v>0.4305161285654848</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3509089983154639</v>
+      </c>
+      <c r="E100">
+        <v>0.8822114606036372</v>
+      </c>
+      <c r="F100">
+        <v>0.1698557902778323</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02611593529059156</v>
+        <v>0.02880752180242408</v>
       </c>
       <c r="C101">
-        <v>-0.009973423923086693</v>
+        <v>-0.008829891464278861</v>
       </c>
       <c r="D101">
-        <v>0.02037850004944492</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03100694282339249</v>
+      </c>
+      <c r="E101">
+        <v>-0.01361441266198964</v>
+      </c>
+      <c r="F101">
+        <v>0.01368792563780743</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
